--- a/data/trans_orig/P62-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P62-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>88059</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77995</v>
+        <v>78117</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96664</v>
+        <v>96464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7664636080295151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6788633052011038</v>
+        <v>0.6799261507571676</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8413577353419261</v>
+        <v>0.8396239780469006</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -765,19 +765,19 @@
         <v>41692</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32473</v>
+        <v>32449</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50791</v>
+        <v>51395</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4656468907741421</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3626860261195658</v>
+        <v>0.3624107495309523</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.567263621655301</v>
+        <v>0.5740178244885696</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>124</v>
@@ -786,19 +786,19 @@
         <v>129751</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>115232</v>
+        <v>116283</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143700</v>
+        <v>143876</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6347092930535727</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5636849528396434</v>
+        <v>0.5688281259257878</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7029452499191774</v>
+        <v>0.7038046427224464</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>26831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18226</v>
+        <v>18426</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36895</v>
+        <v>36773</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2335363919704849</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1586422646580739</v>
+        <v>0.1603760219530993</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3211366947988963</v>
+        <v>0.3200738492428322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -836,19 +836,19 @@
         <v>47844</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38745</v>
+        <v>38141</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57063</v>
+        <v>57087</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.534353109225858</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4327363783446991</v>
+        <v>0.4259821755114304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6373139738804343</v>
+        <v>0.6375892504690474</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>72</v>
@@ -857,19 +857,19 @@
         <v>74675</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60726</v>
+        <v>60550</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89194</v>
+        <v>88143</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3652907069464273</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2970547500808224</v>
+        <v>0.2961953572775537</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4363150471603567</v>
+        <v>0.4311718740742121</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>77791</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68767</v>
+        <v>68941</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84655</v>
+        <v>84762</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8088285039037807</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7150093419578355</v>
+        <v>0.7168159655970815</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8801956708200863</v>
+        <v>0.8813143510086919</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -982,19 +982,19 @@
         <v>25860</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17069</v>
+        <v>16828</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37213</v>
+        <v>35733</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1872838881809605</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1236178115079334</v>
+        <v>0.1218709056702701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2695077540092047</v>
+        <v>0.2587890598622682</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -1003,19 +1003,19 @@
         <v>103651</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87967</v>
+        <v>88603</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120008</v>
+        <v>119790</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4424675844443385</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3755175975645421</v>
+        <v>0.3782293905774154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5122937794818406</v>
+        <v>0.5113654899421236</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>18386</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11522</v>
+        <v>11415</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27410</v>
+        <v>27236</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1911714960962193</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1198043291799136</v>
+        <v>0.1186856489913082</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2849906580421647</v>
+        <v>0.2831840344029192</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>109</v>
@@ -1053,19 +1053,19 @@
         <v>112219</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>100866</v>
+        <v>102346</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>121010</v>
+        <v>121251</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8127161118190395</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7304922459907954</v>
+        <v>0.7412109401377317</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8763821884920666</v>
+        <v>0.8781290943297299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>127</v>
@@ -1074,19 +1074,19 @@
         <v>130605</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>114248</v>
+        <v>114466</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>146289</v>
+        <v>145653</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5575324155556615</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4877062205181594</v>
+        <v>0.4886345100578758</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6244824024354581</v>
+        <v>0.6217706094225844</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>118360</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>105808</v>
+        <v>107199</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>129004</v>
+        <v>128636</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7378691127574455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6596202557343345</v>
+        <v>0.6682868265911808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8042237209080609</v>
+        <v>0.8019329569316113</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1199,19 +1199,19 @@
         <v>21227</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14122</v>
+        <v>13989</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30912</v>
+        <v>30545</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1944714997756703</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1293776268939127</v>
+        <v>0.1281645344400627</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2832080720252889</v>
+        <v>0.2798462529749957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -1220,19 +1220,19 @@
         <v>139587</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>122336</v>
+        <v>123548</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>155569</v>
+        <v>156676</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.517834862617351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4538373740912581</v>
+        <v>0.4583321046237547</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5771228832207814</v>
+        <v>0.5812323682115254</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>42048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31404</v>
+        <v>31772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54600</v>
+        <v>53209</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2621308872425545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1957762790919391</v>
+        <v>0.1980670430683888</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3403797442656658</v>
+        <v>0.3317131734088192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>86</v>
@@ -1270,19 +1270,19 @@
         <v>87924</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78239</v>
+        <v>78606</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>95029</v>
+        <v>95162</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8055285002243298</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7167919279747111</v>
+        <v>0.7201537470250045</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8706223731060869</v>
+        <v>0.8718354655599373</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>127</v>
@@ -1291,19 +1291,19 @@
         <v>129972</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>113990</v>
+        <v>112883</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>147223</v>
+        <v>146011</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.482165137382649</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4228771167792185</v>
+        <v>0.4187676317884746</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5461626259087415</v>
+        <v>0.541667895376245</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>362661</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>341224</v>
+        <v>340292</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>381668</v>
+        <v>382627</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6878178269995311</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6471618373798983</v>
+        <v>0.6453935281044665</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7238670861691977</v>
+        <v>0.7256846954703262</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>114</v>
@@ -1416,19 +1416,19 @@
         <v>113014</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96463</v>
+        <v>97550</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>131794</v>
+        <v>130378</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2787861879726576</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2379578355379572</v>
+        <v>0.2406383621211005</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3251127708640602</v>
+        <v>0.3216188128036339</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>495</v>
@@ -1437,19 +1437,19 @@
         <v>475675</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>447437</v>
+        <v>446038</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>506531</v>
+        <v>508906</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5100292899434148</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4797520255720961</v>
+        <v>0.4782514209045808</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5431133490903924</v>
+        <v>0.5456595375658487</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>164602</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145595</v>
+        <v>144636</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>186039</v>
+        <v>186971</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3121821730004689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2761329138308022</v>
+        <v>0.2743153045296738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3528381626201017</v>
+        <v>0.3546064718955335</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>287</v>
@@ -1487,19 +1487,19 @@
         <v>292366</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>273586</v>
+        <v>275002</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>308917</v>
+        <v>307830</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7212138120273425</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6748872291359399</v>
+        <v>0.6783811871963661</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7620421644620428</v>
+        <v>0.7593616378788994</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>447</v>
@@ -1508,19 +1508,19 @@
         <v>456968</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>426112</v>
+        <v>423737</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>485206</v>
+        <v>486605</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4899707100565852</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4568866509096075</v>
+        <v>0.4543404624341512</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5202479744279038</v>
+        <v>0.5217485790954193</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>82700</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70091</v>
+        <v>70581</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95213</v>
+        <v>94974</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5080252974623546</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4305667802802807</v>
+        <v>0.4335809644706693</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.584893093668548</v>
+        <v>0.5834220915464058</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>97</v>
@@ -1633,19 +1633,19 @@
         <v>101155</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83436</v>
+        <v>86022</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>120247</v>
+        <v>119827</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2846126244506836</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2347583120306678</v>
+        <v>0.2420333743614302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3383300990805673</v>
+        <v>0.3371497597911108</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>183</v>
@@ -1654,19 +1654,19 @@
         <v>183855</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>161544</v>
+        <v>160995</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>208163</v>
+        <v>203657</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3547955315712372</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3117417439953932</v>
+        <v>0.3106810587328131</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.401705643147472</v>
+        <v>0.3930087163782737</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>80087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>67574</v>
+        <v>67813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92696</v>
+        <v>92206</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4919747025376454</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4151069063314518</v>
+        <v>0.4165779084535945</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5694332197197193</v>
+        <v>0.566419035529331</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>245</v>
@@ -1704,19 +1704,19 @@
         <v>254257</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>235165</v>
+        <v>235585</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>271976</v>
+        <v>269390</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7153873755493163</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6616699009194332</v>
+        <v>0.6628502402088891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7652416879693326</v>
+        <v>0.7579666256385695</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>324</v>
@@ -1725,19 +1725,19 @@
         <v>334344</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>310036</v>
+        <v>314542</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>356655</v>
+        <v>357204</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6452044684287628</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5982943568525279</v>
+        <v>0.6069912836217263</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6882582560046069</v>
+        <v>0.6893189412671868</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>10294</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5481</v>
+        <v>4877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20018</v>
+        <v>17877</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03490134555395512</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01858181175710994</v>
+        <v>0.01653557707061023</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06787089040001686</v>
+        <v>0.06061139280483654</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>261</v>
@@ -1850,19 +1850,19 @@
         <v>275182</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>246574</v>
+        <v>245125</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>303630</v>
+        <v>306636</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2205145990642859</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1975899645752354</v>
+        <v>0.1964282674159819</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2433106970773907</v>
+        <v>0.2457192515378503</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>271</v>
@@ -1871,19 +1871,19 @@
         <v>285476</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>256559</v>
+        <v>256908</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>319678</v>
+        <v>316332</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1850310954823369</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1662884169632943</v>
+        <v>0.1665148044394664</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2071987202456519</v>
+        <v>0.2050302485763259</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>284652</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>274928</v>
+        <v>277069</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289465</v>
+        <v>290069</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9650986544460449</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9321291095999832</v>
+        <v>0.9393886071951635</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9814181882428901</v>
+        <v>0.9834644229293897</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>976</v>
@@ -1921,19 +1921,19 @@
         <v>972728</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>944280</v>
+        <v>941274</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1001336</v>
+        <v>1002785</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7794854009357141</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7566893029226093</v>
+        <v>0.7542807484621495</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8024100354247645</v>
+        <v>0.803571732584018</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1269</v>
@@ -1942,19 +1942,19 @@
         <v>1257380</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1223178</v>
+        <v>1226524</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1286297</v>
+        <v>1285948</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8149689045176631</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7928012797543481</v>
+        <v>0.7949697514236744</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8337115830367059</v>
+        <v>0.8334851955605337</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>739864</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>703343</v>
+        <v>699830</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>775008</v>
+        <v>773433</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5454333010092066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5185096569012692</v>
+        <v>0.5159195904027111</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5713412289997011</v>
+        <v>0.5701802561187492</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>558</v>
@@ -2067,19 +2067,19 @@
         <v>578130</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>535626</v>
+        <v>539110</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>618642</v>
+        <v>624183</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.246488309961987</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2283666595753265</v>
+        <v>0.2298518425763984</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2637606763972115</v>
+        <v>0.2661231255831856</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1316</v>
@@ -2088,19 +2088,19 @@
         <v>1317995</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1258999</v>
+        <v>1264032</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1375940</v>
+        <v>1379625</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3560283004051827</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3400918065739604</v>
+        <v>0.3414512423868308</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3716809492428935</v>
+        <v>0.3726764322224276</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>616607</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>581463</v>
+        <v>583038</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>653128</v>
+        <v>656641</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4545666989907934</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4286587710002989</v>
+        <v>0.4298197438812508</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4814903430987308</v>
+        <v>0.4840804095972889</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1749</v>
@@ -2138,19 +2138,19 @@
         <v>1767337</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1726825</v>
+        <v>1721284</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1809841</v>
+        <v>1806357</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.753511690038013</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7362393236027884</v>
+        <v>0.7338768744168143</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7716333404246736</v>
+        <v>0.7701481574236014</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2366</v>
@@ -2159,19 +2159,19 @@
         <v>2383944</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2325999</v>
+        <v>2322314</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2442940</v>
+        <v>2437907</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6439716995948174</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6283190507571065</v>
+        <v>0.6273235677775724</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6599081934260396</v>
+        <v>0.6585487576131691</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>70044</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57409</v>
+        <v>57791</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82584</v>
+        <v>83066</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5293408531489771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4338585075707375</v>
+        <v>0.4367413390021894</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6241087222694919</v>
+        <v>0.6277488986020516</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2526,19 +2526,19 @@
         <v>37237</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26621</v>
+        <v>27465</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48225</v>
+        <v>49628</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3128580527400371</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2236668421809531</v>
+        <v>0.2307598490869975</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4051776313916798</v>
+        <v>0.416965850064794</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -2547,19 +2547,19 @@
         <v>107281</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90622</v>
+        <v>89716</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124150</v>
+        <v>125822</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4268279470434961</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3605512803923362</v>
+        <v>0.3569446541687801</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4939435802399317</v>
+        <v>0.5005985230308271</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>62279</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49739</v>
+        <v>49257</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74914</v>
+        <v>74532</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.470659146851023</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3758912777305081</v>
+        <v>0.3722511013979483</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5661414924292625</v>
+        <v>0.5632586609978105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>72</v>
@@ -2597,19 +2597,19 @@
         <v>81784</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70796</v>
+        <v>69393</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92400</v>
+        <v>91556</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6871419472599629</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5948223686083207</v>
+        <v>0.5830341499352056</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7763331578190471</v>
+        <v>0.7692401509130025</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>130</v>
@@ -2618,19 +2618,19 @@
         <v>144063</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>127194</v>
+        <v>125522</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>160722</v>
+        <v>161628</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5731720529565039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5060564197600681</v>
+        <v>0.499401476969173</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6394487196076638</v>
+        <v>0.64305534583122</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>95393</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82518</v>
+        <v>83444</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107474</v>
+        <v>108141</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5950854443819007</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5147668992824029</v>
+        <v>0.520542153749347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6704454975683303</v>
+        <v>0.674605394135271</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2743,19 +2743,19 @@
         <v>37329</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25014</v>
+        <v>26869</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50309</v>
+        <v>50887</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2235399337394558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1497947090833145</v>
+        <v>0.1609008083158404</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3012699818883653</v>
+        <v>0.3047293178757398</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>111</v>
@@ -2764,19 +2764,19 @@
         <v>132723</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>113761</v>
+        <v>113921</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151411</v>
+        <v>149445</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4055160490363623</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3475813181565262</v>
+        <v>0.3480700880385796</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4626175297248257</v>
+        <v>0.4566092431949987</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>64909</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52828</v>
+        <v>52161</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77784</v>
+        <v>76858</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4049145556180992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3295545024316698</v>
+        <v>0.3253946058647291</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4852331007175968</v>
+        <v>0.479457846250653</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>119</v>
@@ -2814,19 +2814,19 @@
         <v>129662</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>116682</v>
+        <v>116104</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>141977</v>
+        <v>140122</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7764600662605442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6987300181116352</v>
+        <v>0.6952706821242602</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8502052909166856</v>
+        <v>0.8390991916841596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>181</v>
@@ -2835,19 +2835,19 @@
         <v>194570</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>175882</v>
+        <v>177848</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>213532</v>
+        <v>213372</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5944839509636377</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5373824702751743</v>
+        <v>0.5433907568050012</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6524186818434736</v>
+        <v>0.6519299119614201</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>185089</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163474</v>
+        <v>165550</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>204468</v>
+        <v>205575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5306079158530667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4686423719003001</v>
+        <v>0.4745939718053993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5861624749816502</v>
+        <v>0.5893366956738179</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -2960,19 +2960,19 @@
         <v>58927</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48162</v>
+        <v>47866</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71186</v>
+        <v>70396</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4048420873672444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3308846080050354</v>
+        <v>0.3288520979408056</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4890659779488817</v>
+        <v>0.483634833108936</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -2981,19 +2981,19 @@
         <v>244017</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>220987</v>
+        <v>221089</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>267656</v>
+        <v>268608</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4935797875926114</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4469955865615765</v>
+        <v>0.4472031349341202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.541395205016833</v>
+        <v>0.5433215885282093</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>163736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>144357</v>
+        <v>143250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>185351</v>
+        <v>183275</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4693920841469334</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4138375250183498</v>
+        <v>0.4106633043261822</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5313576280997</v>
+        <v>0.5254060281946008</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>81</v>
@@ -3031,19 +3031,19 @@
         <v>86629</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74370</v>
+        <v>75160</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>97394</v>
+        <v>97690</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5951579126327556</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5109340220511183</v>
+        <v>0.516365166891064</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6691153919949645</v>
+        <v>0.6711479020591943</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>235</v>
@@ -3052,19 +3052,19 @@
         <v>250365</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>226726</v>
+        <v>225774</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>273395</v>
+        <v>273293</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5064202124073887</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4586047949831671</v>
+        <v>0.4566784114717907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5530044134384237</v>
+        <v>0.5527968650658798</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>349793</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>323140</v>
+        <v>323602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>379086</v>
+        <v>378602</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4847093127118016</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4477757806117377</v>
+        <v>0.4484171578630696</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5253002854890606</v>
+        <v>0.5246297228832212</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>106</v>
@@ -3177,19 +3177,19 @@
         <v>116798</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96541</v>
+        <v>98538</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>134945</v>
+        <v>136723</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2535557026271797</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2095805780296851</v>
+        <v>0.2139166060660017</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.292952757359914</v>
+        <v>0.2968126045105641</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>429</v>
@@ -3198,19 +3198,19 @@
         <v>466590</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>431637</v>
+        <v>431059</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>501483</v>
+        <v>500709</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3946485028847495</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3650850103920534</v>
+        <v>0.3645958070829589</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4241615184508029</v>
+        <v>0.4235068533025332</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>371862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342569</v>
+        <v>343053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>398515</v>
+        <v>398053</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5152906872881984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4746997145109393</v>
+        <v>0.4753702771167794</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5522242193882623</v>
+        <v>0.5515828421369304</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -3248,19 +3248,19 @@
         <v>343841</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>325694</v>
+        <v>323916</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364098</v>
+        <v>362101</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7464442973728203</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.707047242640086</v>
+        <v>0.703187395489435</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7904194219703149</v>
+        <v>0.7860833939339978</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>666</v>
@@ -3269,19 +3269,19 @@
         <v>715703</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>680810</v>
+        <v>681584</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>750656</v>
+        <v>751234</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6053514971152505</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.575838481549197</v>
+        <v>0.5764931466974669</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6349149896079466</v>
+        <v>0.6354041929170412</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>153795</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>134994</v>
+        <v>136427</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>173136</v>
+        <v>174643</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4322862027723752</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3794395946072405</v>
+        <v>0.3834675891607201</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4866482885766757</v>
+        <v>0.4908832466265864</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>212</v>
@@ -3394,19 +3394,19 @@
         <v>226560</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>201925</v>
+        <v>201461</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>247804</v>
+        <v>249113</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3925197727050744</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3498386908694076</v>
+        <v>0.3490343597726323</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4293245259398859</v>
+        <v>0.431593272705983</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>356</v>
@@ -3415,19 +3415,19 @@
         <v>380355</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>352384</v>
+        <v>352503</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>411733</v>
+        <v>410083</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4076840564429325</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3777032668954592</v>
+        <v>0.3778299893615902</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4413159750314833</v>
+        <v>0.4395473325204711</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>201977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>182636</v>
+        <v>181129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>220778</v>
+        <v>219345</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5677137972276248</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5133517114233238</v>
+        <v>0.5091167533734149</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6205604053927594</v>
+        <v>0.6165324108392801</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>323</v>
@@ -3465,19 +3465,19 @@
         <v>350635</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>329391</v>
+        <v>328082</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>375270</v>
+        <v>375734</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6074802272949256</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5706754740601141</v>
+        <v>0.5684067272940169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6501613091305921</v>
+        <v>0.6509656402273677</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>520</v>
@@ -3486,19 +3486,19 @@
         <v>552611</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>521233</v>
+        <v>522883</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>580582</v>
+        <v>580463</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5923159435570674</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5586840249685168</v>
+        <v>0.5604526674795289</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6222967331045409</v>
+        <v>0.6221700106384098</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>16095</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9052</v>
+        <v>9213</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26501</v>
+        <v>26280</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0620024101400518</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03486933297993708</v>
+        <v>0.03548922391795074</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1020880056669382</v>
+        <v>0.1012385464501029</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>251</v>
@@ -3611,19 +3611,19 @@
         <v>270397</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>242521</v>
+        <v>241250</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>300817</v>
+        <v>299859</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2458232644985229</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2204807703165879</v>
+        <v>0.2193254780775632</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2734785960969946</v>
+        <v>0.2726083042870774</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>265</v>
@@ -3632,19 +3632,19 @@
         <v>286492</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>254951</v>
+        <v>254098</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>316035</v>
+        <v>319460</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.210725242548312</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1875256126655906</v>
+        <v>0.1868983699773869</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2324557516135861</v>
+        <v>0.2349744930671542</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>243492</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233086</v>
+        <v>233307</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>250535</v>
+        <v>250374</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9379975898599482</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8979119943330619</v>
+        <v>0.898761453549897</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9651306670200629</v>
+        <v>0.9645107760820493</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>784</v>
@@ -3682,19 +3682,19 @@
         <v>829567</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>799147</v>
+        <v>800105</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>857443</v>
+        <v>858714</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7541767355014771</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.726521403903006</v>
+        <v>0.7273916957129231</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7795192296834125</v>
+        <v>0.7806745219224369</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1028</v>
@@ -3703,19 +3703,19 @@
         <v>1073059</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1043516</v>
+        <v>1040091</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1104600</v>
+        <v>1105453</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7892747574516881</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.767544248386414</v>
+        <v>0.7650255069328458</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8124743873344095</v>
+        <v>0.813101630022613</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>870209</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>821287</v>
+        <v>825153</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>911235</v>
+        <v>916655</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4398410859831418</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.415113791276315</v>
+        <v>0.417067706641153</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.460577204706144</v>
+        <v>0.463316691683986</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>688</v>
@@ -3828,19 +3828,19 @@
         <v>747248</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>700871</v>
+        <v>700632</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>793642</v>
+        <v>795816</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2908296940610305</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.272779922888586</v>
+        <v>0.2726866711440697</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3088866305263325</v>
+        <v>0.3097326370303695</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1474</v>
@@ -3849,19 +3849,19 @@
         <v>1617457</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1551441</v>
+        <v>1553272</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1676876</v>
+        <v>1684833</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3556548203342043</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3411389070796125</v>
+        <v>0.3415414091820693</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3687200255582967</v>
+        <v>0.3704697114360916</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1108254</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1067228</v>
+        <v>1061808</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1157176</v>
+        <v>1153310</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5601589140168581</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5394227952938562</v>
+        <v>0.5366833083160142</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.584886208723685</v>
+        <v>0.5829322933588471</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1696</v>
@@ -3899,19 +3899,19 @@
         <v>1822117</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1775723</v>
+        <v>1773549</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1868494</v>
+        <v>1868733</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7091703059389695</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6911133694736675</v>
+        <v>0.6902673629696305</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7272200771114142</v>
+        <v>0.7273133288559307</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2760</v>
@@ -3920,19 +3920,19 @@
         <v>2930372</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2870953</v>
+        <v>2862996</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2996388</v>
+        <v>2994557</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6443451796657957</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6312799744417033</v>
+        <v>0.6295302885639084</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6588610929203875</v>
+        <v>0.6584585908179307</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>98181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86778</v>
+        <v>86683</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109586</v>
+        <v>109670</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6569946145775589</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5806926001036149</v>
+        <v>0.5800543744369837</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7333189000078399</v>
+        <v>0.7338778801224946</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -4287,19 +4287,19 @@
         <v>49632</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37608</v>
+        <v>37367</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62245</v>
+        <v>61300</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3801607597488805</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2880604168011021</v>
+        <v>0.2862173041442533</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.476768805047515</v>
+        <v>0.4695274733577947</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>134</v>
@@ -4308,19 +4308,19 @@
         <v>147813</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>130622</v>
+        <v>131180</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>163632</v>
+        <v>165695</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.527912607772873</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4665161037646968</v>
+        <v>0.4685089616549848</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5844098409068955</v>
+        <v>0.5917777082595893</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>51258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39853</v>
+        <v>39769</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62661</v>
+        <v>62756</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3430053854224411</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.26668109999216</v>
+        <v>0.2661221198775054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4193073998963852</v>
+        <v>0.4199456255630158</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -4358,19 +4358,19 @@
         <v>80924</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68311</v>
+        <v>69256</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92948</v>
+        <v>93189</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6198392402511196</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5232311949524855</v>
+        <v>0.5304725266422052</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7119395831988982</v>
+        <v>0.7137826958557468</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>128</v>
@@ -4379,19 +4379,19 @@
         <v>132182</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>116363</v>
+        <v>114300</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>149373</v>
+        <v>148815</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.472087392227127</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4155901590931044</v>
+        <v>0.4082222917404106</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5334838962353031</v>
+        <v>0.5314910383450152</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>79176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67356</v>
+        <v>67218</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90283</v>
+        <v>89959</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5944331713060292</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5056941089162723</v>
+        <v>0.5046614128298108</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6778220529463557</v>
+        <v>0.6753959991921838</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -4504,19 +4504,19 @@
         <v>38520</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27619</v>
+        <v>28284</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51151</v>
+        <v>50618</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2126279150882453</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1524547082862271</v>
+        <v>0.1561253514933178</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2823506223606602</v>
+        <v>0.2794103896436206</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -4525,19 +4525,19 @@
         <v>117696</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100213</v>
+        <v>99480</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134366</v>
+        <v>134859</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3744021374258097</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.318788256640972</v>
+        <v>0.3164571653813446</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4274328862125886</v>
+        <v>0.4290019191818559</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>54019</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42912</v>
+        <v>43236</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65839</v>
+        <v>65977</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4055668286939707</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3221779470536441</v>
+        <v>0.3246040008078162</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4943058910837276</v>
+        <v>0.4953385871701893</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>134</v>
@@ -4575,19 +4575,19 @@
         <v>142641</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>130010</v>
+        <v>130543</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>153542</v>
+        <v>152877</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7873720849117547</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7176493776393401</v>
+        <v>0.7205896103563796</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.847545291713773</v>
+        <v>0.8438746485066825</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>185</v>
@@ -4596,19 +4596,19 @@
         <v>196660</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>179990</v>
+        <v>179497</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>214143</v>
+        <v>214876</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6255978625741903</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5725671137874114</v>
+        <v>0.5709980808181444</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6812117433590282</v>
+        <v>0.6835428346186557</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>174775</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>157478</v>
+        <v>156645</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191164</v>
+        <v>192435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5787945430436348</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5215132174578549</v>
+        <v>0.5187541601146285</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6330674597383555</v>
+        <v>0.6372782888902168</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -4721,19 +4721,19 @@
         <v>49077</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39875</v>
+        <v>38501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60541</v>
+        <v>59536</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5012916873945023</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4072992432937515</v>
+        <v>0.3932675029749136</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6183913134091245</v>
+        <v>0.6081196793869218</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -4742,19 +4742,19 @@
         <v>223852</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>204047</v>
+        <v>202913</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>244336</v>
+        <v>246416</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5598191523222888</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5102899793478738</v>
+        <v>0.5074530368048071</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6110456716608575</v>
+        <v>0.6162486960677805</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>127189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>110800</v>
+        <v>109529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144486</v>
+        <v>145319</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4212054569563653</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3669325402616445</v>
+        <v>0.362721711109783</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4784867825421451</v>
+        <v>0.4812458398853715</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -4792,19 +4792,19 @@
         <v>48824</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37360</v>
+        <v>38365</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>58026</v>
+        <v>59400</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4987083126054978</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3816086865908753</v>
+        <v>0.3918803206130783</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5927007567062486</v>
+        <v>0.6067324970250865</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>164</v>
@@ -4813,19 +4813,19 @@
         <v>176013</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>155529</v>
+        <v>153449</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>195818</v>
+        <v>196952</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4401808476777112</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3889543283391426</v>
+        <v>0.3837513039322193</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4897100206521263</v>
+        <v>0.4925469631951927</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>345722</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>317946</v>
+        <v>318791</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>369733</v>
+        <v>371553</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5258263071180014</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4835807998040055</v>
+        <v>0.4848654032312938</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5623457298144373</v>
+        <v>0.5651148343466998</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>130</v>
@@ -4938,19 +4938,19 @@
         <v>145555</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>125560</v>
+        <v>125955</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>167359</v>
+        <v>167704</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3211775940684402</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2770579304950566</v>
+        <v>0.2779284160366317</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.369288922334662</v>
+        <v>0.3700517137132274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>471</v>
@@ -4959,19 +4959,19 @@
         <v>491277</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>459533</v>
+        <v>458824</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>529240</v>
+        <v>526204</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4423228855132739</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4137421252202136</v>
+        <v>0.4131040909470861</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4765028620292653</v>
+        <v>0.4737698091283032</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>311761</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>287750</v>
+        <v>285930</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>339537</v>
+        <v>338692</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4741736928819987</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4376542701855626</v>
+        <v>0.4348851656532998</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5164192001959943</v>
+        <v>0.5151345967687061</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>301</v>
@@ -5009,19 +5009,19 @@
         <v>307637</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>285833</v>
+        <v>285488</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>327632</v>
+        <v>327237</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6788224059315598</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.630711077665338</v>
+        <v>0.6299482862867726</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7229420695049433</v>
+        <v>0.7220715839633686</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>595</v>
@@ -5030,19 +5030,19 @@
         <v>619398</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>581435</v>
+        <v>584471</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>651142</v>
+        <v>651851</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5576771144867261</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5234971379707346</v>
+        <v>0.5262301908716968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5862578747797863</v>
+        <v>0.586895909052914</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>193672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>173686</v>
+        <v>173516</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>213305</v>
+        <v>216526</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4558177714799536</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4087816536821648</v>
+        <v>0.4083798522104975</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5020262170927683</v>
+        <v>0.5096073629233453</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>183</v>
@@ -5155,19 +5155,19 @@
         <v>208069</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>184070</v>
+        <v>186836</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>233184</v>
+        <v>231693</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3887359588254715</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3438983220054767</v>
+        <v>0.3490673550273086</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4356600759552465</v>
+        <v>0.4328735298077315</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>386</v>
@@ -5176,19 +5176,19 @@
         <v>401740</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>366824</v>
+        <v>372180</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>431054</v>
+        <v>433944</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4184217319072215</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3820557687202515</v>
+        <v>0.3876338958746237</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.44895285364504</v>
+        <v>0.4519631426999876</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>231216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>211583</v>
+        <v>208362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>251202</v>
+        <v>251372</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5441822285200465</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4979737829072318</v>
+        <v>0.4903926370766551</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5912183463178353</v>
+        <v>0.5916201477895026</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>319</v>
@@ -5226,19 +5226,19 @@
         <v>327175</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>302060</v>
+        <v>303551</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>351174</v>
+        <v>348408</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6112640411745285</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5643399240447535</v>
+        <v>0.5671264701922685</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6561016779945233</v>
+        <v>0.6509326449726913</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>534</v>
@@ -5247,19 +5247,19 @@
         <v>558392</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>529078</v>
+        <v>526188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>593308</v>
+        <v>587952</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5815782680927785</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5510471463549599</v>
+        <v>0.5480368573000124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6179442312797481</v>
+        <v>0.6123661041253762</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>8443</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4058</v>
+        <v>3801</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16036</v>
+        <v>15861</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03090044840319827</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0148532157127842</v>
+        <v>0.0139126647776545</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05868961908477507</v>
+        <v>0.05804952591648961</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>208</v>
@@ -5372,19 +5372,19 @@
         <v>248673</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>219628</v>
+        <v>220406</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>279411</v>
+        <v>277420</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2360901695831703</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2085147264966291</v>
+        <v>0.2092532331225739</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2652730701829424</v>
+        <v>0.2633830504761655</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>216</v>
@@ -5393,19 +5393,19 @@
         <v>257116</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>228197</v>
+        <v>226463</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>289025</v>
+        <v>287623</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1938255455637814</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1720249259435895</v>
+        <v>0.1707182727894257</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2178800249420568</v>
+        <v>0.2168233211000527</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>264794</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257201</v>
+        <v>257376</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269179</v>
+        <v>269436</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9690995515968017</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.941310380915225</v>
+        <v>0.9419504740835104</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9851467842872158</v>
+        <v>0.9860873352223493</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>757</v>
@@ -5443,19 +5443,19 @@
         <v>804623</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>773885</v>
+        <v>775876</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>833668</v>
+        <v>832890</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7639098304168297</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7347269298170577</v>
+        <v>0.7366169495238346</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7914852735033709</v>
+        <v>0.7907467668774261</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1008</v>
@@ -5464,19 +5464,19 @@
         <v>1069417</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1037508</v>
+        <v>1038910</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1098336</v>
+        <v>1100070</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8061744544362186</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7821199750579433</v>
+        <v>0.7831766788999472</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8279750740564109</v>
+        <v>0.8292817272105742</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>899968</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>856307</v>
+        <v>852890</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>941846</v>
+        <v>946554</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4638516820938681</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4413485802508555</v>
+        <v>0.4395871446624199</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4854358576499683</v>
+        <v>0.4878627359478982</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>637</v>
@@ -5589,19 +5589,19 @@
         <v>739525</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>691959</v>
+        <v>695739</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>784171</v>
+        <v>789042</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3016809777750831</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2822769585767392</v>
+        <v>0.2838189621658392</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3198936311810716</v>
+        <v>0.3218805743228965</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1538</v>
@@ -5610,19 +5610,19 @@
         <v>1639493</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1575062</v>
+        <v>1578057</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1706068</v>
+        <v>1704654</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3733286278215648</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.358657039428246</v>
+        <v>0.3593389615630167</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3884883739149091</v>
+        <v>0.3881662953741208</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1040238</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>998360</v>
+        <v>993652</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1083899</v>
+        <v>1087316</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5361483179061319</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5145641423500318</v>
+        <v>0.5121372640521018</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5586514197491445</v>
+        <v>0.5604128553375801</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1636</v>
@@ -5660,19 +5660,19 @@
         <v>1711824</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1667178</v>
+        <v>1662307</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1759390</v>
+        <v>1755610</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6983190222249169</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6801063688189284</v>
+        <v>0.6781194256771033</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7177230414232608</v>
+        <v>0.7161810378341608</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2614</v>
@@ -5681,19 +5681,19 @@
         <v>2752062</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2685487</v>
+        <v>2686901</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2816493</v>
+        <v>2813498</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6266713721784352</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6115116260850911</v>
+        <v>0.6118337046258793</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6413429605717543</v>
+        <v>0.6406610384369833</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>116941</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>104871</v>
+        <v>104162</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>127256</v>
+        <v>127136</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6968805213165095</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6249525483619319</v>
+        <v>0.6207276747956625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7583547694516601</v>
+        <v>0.7576381307197443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -6048,19 +6048,19 @@
         <v>73290</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62310</v>
+        <v>63263</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83250</v>
+        <v>83588</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4905210529136902</v>
+        <v>0.4905210529136901</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4170316907951849</v>
+        <v>0.4234109953312828</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5571820250111457</v>
+        <v>0.5594431467832245</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>277</v>
@@ -6069,19 +6069,19 @@
         <v>190231</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175149</v>
+        <v>173202</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>206937</v>
+        <v>206450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5996832260087055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5521375862704305</v>
+        <v>0.5460023921702017</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6523479293411857</v>
+        <v>0.6508107656664925</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>50865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40550</v>
+        <v>40670</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62935</v>
+        <v>63644</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3031194786834904</v>
+        <v>0.3031194786834903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2416452305483398</v>
+        <v>0.2423618692802558</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.375047451638068</v>
+        <v>0.3792723252043375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>109</v>
@@ -6119,19 +6119,19 @@
         <v>76123</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66163</v>
+        <v>65825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87103</v>
+        <v>86150</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5094789470863099</v>
+        <v>0.5094789470863098</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4428179749888542</v>
+        <v>0.4405568532167754</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5829683092048148</v>
+        <v>0.5765890046687172</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>167</v>
@@ -6140,19 +6140,19 @@
         <v>126988</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>110282</v>
+        <v>110769</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>142070</v>
+        <v>144017</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4003167739912945</v>
+        <v>0.4003167739912946</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3476520706588145</v>
+        <v>0.3491892343335075</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4478624137295695</v>
+        <v>0.4539976078297981</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>116743</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>106075</v>
+        <v>105666</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126834</v>
+        <v>126818</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7230799715817622</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6570036536772281</v>
+        <v>0.6544703995151476</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7855812351581863</v>
+        <v>0.7854859414049102</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -6265,19 +6265,19 @@
         <v>69771</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59258</v>
+        <v>59853</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80007</v>
+        <v>79976</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4730940763722434</v>
+        <v>0.4730940763722435</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4018057868762298</v>
+        <v>0.4058444786994024</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5425011962643173</v>
+        <v>0.5422909912375159</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>267</v>
@@ -6286,19 +6286,19 @@
         <v>186514</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>171532</v>
+        <v>171591</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>201198</v>
+        <v>200210</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6037412570982094</v>
+        <v>0.6037412570982095</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5552450929896134</v>
+        <v>0.5554373255193684</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6512749927878004</v>
+        <v>0.6480771009321639</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>44709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34618</v>
+        <v>34634</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55377</v>
+        <v>55786</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2769200284182378</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2144187648418136</v>
+        <v>0.2145140585950898</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3429963463227718</v>
+        <v>0.3455296004848523</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>108</v>
@@ -6336,19 +6336,19 @@
         <v>77707</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>67471</v>
+        <v>67502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>88220</v>
+        <v>87625</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5269059236277566</v>
+        <v>0.5269059236277567</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4574988037356827</v>
+        <v>0.457709008762484</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5981942131237703</v>
+        <v>0.5941555213005979</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>161</v>
@@ -6357,19 +6357,19 @@
         <v>122416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>107732</v>
+        <v>108720</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>137398</v>
+        <v>137339</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3962587429017906</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3487250072121995</v>
+        <v>0.3519228990678361</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4447549070103864</v>
+        <v>0.4445626744806315</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>143408</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129551</v>
+        <v>131049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154623</v>
+        <v>155407</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7199220000711861</v>
+        <v>0.719922000071186</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6503583488628667</v>
+        <v>0.6578815784418833</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7762238127520205</v>
+        <v>0.7801604614571953</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -6482,19 +6482,19 @@
         <v>56702</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48924</v>
+        <v>48414</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64244</v>
+        <v>64753</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5424673504552379</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4680485819845766</v>
+        <v>0.4631707320868196</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6146119849510243</v>
+        <v>0.6194832355082809</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>288</v>
@@ -6503,19 +6503,19 @@
         <v>200110</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>185540</v>
+        <v>185026</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>214421</v>
+        <v>213970</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6588510929931974</v>
+        <v>0.6588510929931977</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6108791637856327</v>
+        <v>0.6091888067180782</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7059669939561978</v>
+        <v>0.7044843225604452</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>55791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44576</v>
+        <v>43792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69648</v>
+        <v>68150</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2800779999288138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2237761872479795</v>
+        <v>0.2198395385428048</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3496416511371336</v>
+        <v>0.3421184215581168</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -6553,19 +6553,19 @@
         <v>47825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40283</v>
+        <v>39774</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55603</v>
+        <v>56113</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4575326495447621</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3853880150489759</v>
+        <v>0.3805167644917192</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5319514180154233</v>
+        <v>0.5368292679131803</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>130</v>
@@ -6574,19 +6574,19 @@
         <v>103616</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>89305</v>
+        <v>89756</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>118186</v>
+        <v>118700</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3411489070068024</v>
+        <v>0.3411489070068026</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2940330060438023</v>
+        <v>0.2955156774395549</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3891208362143674</v>
+        <v>0.390811193281922</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>321545</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>297026</v>
+        <v>296053</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>343816</v>
+        <v>343790</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6307167359059915</v>
+        <v>0.6307167359059914</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5826224125041506</v>
+        <v>0.5807135461223893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6744017935552878</v>
+        <v>0.6743513494104033</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>245</v>
@@ -6699,19 +6699,19 @@
         <v>139177</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>123212</v>
+        <v>124132</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>153822</v>
+        <v>153570</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3643264100238164</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3225351234841838</v>
+        <v>0.3249414526540903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4026618102789943</v>
+        <v>0.4020032752274093</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>663</v>
@@ -6720,19 +6720,19 @@
         <v>460723</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>431982</v>
+        <v>431595</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>489162</v>
+        <v>490486</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5166083228175268</v>
+        <v>0.5166083228175269</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4843812617047248</v>
+        <v>0.4839480096324352</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5484978683040309</v>
+        <v>0.5499821621419371</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>188264</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>165993</v>
+        <v>166019</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212783</v>
+        <v>213756</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3692832640940085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3255982064447123</v>
+        <v>0.3256486505895966</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4173775874958494</v>
+        <v>0.4192864538776109</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>350</v>
@@ -6770,19 +6770,19 @@
         <v>242835</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>228190</v>
+        <v>228442</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>258800</v>
+        <v>257880</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6356735899761835</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5973381897210057</v>
+        <v>0.5979967247725905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6774648765158161</v>
+        <v>0.6750585473459095</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>514</v>
@@ -6791,19 +6791,19 @@
         <v>431099</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>402660</v>
+        <v>401336</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>459840</v>
+        <v>460227</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4833916771824732</v>
+        <v>0.4833916771824733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4515021316959687</v>
+        <v>0.4500178378580627</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5156187382952746</v>
+        <v>0.5160519903675643</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>150965</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>135078</v>
+        <v>132234</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>165086</v>
+        <v>166579</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.586427248570126</v>
+        <v>0.5864272485701261</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5247126885631759</v>
+        <v>0.5136646147292222</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6412810204353068</v>
+        <v>0.647079248975043</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>448</v>
@@ -6916,19 +6916,19 @@
         <v>242323</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>224181</v>
+        <v>223691</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>260220</v>
+        <v>261433</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4698399538930644</v>
+        <v>0.4698399538930643</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4346651519520602</v>
+        <v>0.4337147433694053</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5045412622492869</v>
+        <v>0.5068929070765794</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>642</v>
@@ -6937,19 +6937,19 @@
         <v>393288</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>369088</v>
+        <v>367833</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>414416</v>
+        <v>418089</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5086574971669885</v>
+        <v>0.5086574971669886</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4773590500347802</v>
+        <v>0.4757354566751519</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5359840278432437</v>
+        <v>0.5407339312549603</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>106467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92346</v>
+        <v>90853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122354</v>
+        <v>125198</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4135727514298739</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3587189795646933</v>
+        <v>0.352920751024957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.475287311436824</v>
+        <v>0.4863353852707775</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>407</v>
@@ -6987,19 +6987,19 @@
         <v>273433</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>255536</v>
+        <v>254323</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>291575</v>
+        <v>292065</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5301600461069357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4954587377507133</v>
+        <v>0.4931070929234204</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5653348480479399</v>
+        <v>0.5662852566305945</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>506</v>
@@ -7008,19 +7008,19 @@
         <v>379900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>358772</v>
+        <v>355099</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>404100</v>
+        <v>405355</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4913425028330115</v>
+        <v>0.4913425028330116</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4640159721567562</v>
+        <v>0.4592660687450396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5226409499652198</v>
+        <v>0.5242645433248482</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>10426</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5409</v>
+        <v>5546</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18613</v>
+        <v>19908</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0445206105677385</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02309744164181197</v>
+        <v>0.02368382139499338</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0794790579507552</v>
+        <v>0.08500788833967146</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>374</v>
@@ -7133,19 +7133,19 @@
         <v>212714</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>192331</v>
+        <v>189812</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>233945</v>
+        <v>234858</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2533613432527924</v>
+        <v>0.2533613432527923</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2290826453480096</v>
+        <v>0.2260829862753356</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2786485739349068</v>
+        <v>0.2797368764872005</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>386</v>
@@ -7154,19 +7154,19 @@
         <v>223140</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>202152</v>
+        <v>201925</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>246252</v>
+        <v>248280</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.20781338385572</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.18826678963574</v>
+        <v>0.188055061140943</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2293373065245838</v>
+        <v>0.2312258542688967</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>223759</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215572</v>
+        <v>214277</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>228776</v>
+        <v>228639</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9554793894322616</v>
+        <v>0.9554793894322614</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.920520942049245</v>
+        <v>0.9149921116603286</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.976902558358188</v>
+        <v>0.9763161786050066</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>782</v>
@@ -7204,19 +7204,19 @@
         <v>626855</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>605624</v>
+        <v>604711</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>647238</v>
+        <v>649757</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7466386567472076</v>
+        <v>0.7466386567472078</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7213514260650932</v>
+        <v>0.7202631235127995</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7709173546519901</v>
+        <v>0.7739170137246644</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>880</v>
@@ -7225,19 +7225,19 @@
         <v>850614</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>827502</v>
+        <v>825474</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>871602</v>
+        <v>871829</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.79218661614428</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7706626934754172</v>
+        <v>0.768774145731104</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8117332103642599</v>
+        <v>0.8119449388590572</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>860028</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>810885</v>
+        <v>816209</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>900245</v>
+        <v>903623</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5621525742530393</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.530030442633853</v>
+        <v>0.5335106953238731</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5884405614556193</v>
+        <v>0.5906485541009395</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1407</v>
@@ -7350,19 +7350,19 @@
         <v>793978</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>758269</v>
+        <v>755533</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>832001</v>
+        <v>834717</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3712336682719019</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3545374270388022</v>
+        <v>0.3532585435664588</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3890119574576614</v>
+        <v>0.3902817520425083</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2523</v>
@@ -7371,19 +7371,19 @@
         <v>1654005</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1596656</v>
+        <v>1593302</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1710569</v>
+        <v>1710935</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4508500053383003</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.435217712890557</v>
+        <v>0.4343033848543478</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4662681378498711</v>
+        <v>0.4663679455235216</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>669855</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>629638</v>
+        <v>626260</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>718998</v>
+        <v>713674</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4378474257469606</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4115594385443807</v>
+        <v>0.4093514458990604</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4699695573661469</v>
+        <v>0.466489304676127</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1828</v>
@@ -7421,19 +7421,19 @@
         <v>1344777</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1306754</v>
+        <v>1304038</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1380486</v>
+        <v>1383222</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6287663317280981</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6109880425423383</v>
+        <v>0.6097182479574919</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6454625729611977</v>
+        <v>0.6467414564335414</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2358</v>
@@ -7442,19 +7442,19 @@
         <v>2014633</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1958069</v>
+        <v>1957703</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2071982</v>
+        <v>2075336</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5491499946616994</v>
+        <v>0.5491499946616996</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5337318621501288</v>
+        <v>0.5336320544764789</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5647822871094427</v>
+        <v>0.5656966151456524</v>
       </c>
     </row>
     <row r="24">
